--- a/Code/Demographic_data.xlsx
+++ b/Code/Demographic_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\UNIVERSIDAD\MASTER UOC BIOINFORMATICA\TFM\TFM_Borrador\Entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5215D5-C728-47DC-947D-DB704D52591D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949A203-0754-48DE-91D3-285AD37517D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{80EFE0F8-FAFF-4490-BCC1-FB5EDA35CDA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80EFE0F8-FAFF-4490-BCC1-FB5EDA35CDA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -318,10 +318,10 @@
     <t>Pathology</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>EA</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -882,7 +882,7 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -926,7 +926,7 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -970,7 +970,7 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1014,7 +1014,7 @@
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1058,7 +1058,7 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1102,7 +1102,7 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1146,7 +1146,7 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1190,7 +1190,7 @@
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1234,7 +1234,7 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -1274,7 +1274,7 @@
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1314,7 +1314,7 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1358,7 +1358,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1402,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1439,7 +1439,7 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1479,7 +1479,7 @@
         <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1523,7 +1523,7 @@
         <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1567,7 +1567,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1611,7 +1611,7 @@
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1648,7 +1648,7 @@
         <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1688,7 +1688,7 @@
         <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -1732,7 +1732,7 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -1776,7 +1776,7 @@
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -1820,7 +1820,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1860,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -1904,7 +1904,7 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -1948,7 +1948,7 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1985,7 +1985,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -2022,7 +2022,7 @@
         <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -2056,7 +2056,7 @@
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -2093,7 +2093,7 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -2130,7 +2130,7 @@
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
